--- a/간트차트_7조_정한다슬_김경철.xlsx
+++ b/간트차트_7조_정한다슬_김경철.xlsx
@@ -620,6 +620,33 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -667,33 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1107,7 +1107,7 @@
   <dimension ref="B1:BO16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1122,13 +1122,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="42"/>
+      <c r="D1" s="26"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
@@ -1193,13 +1193,13 @@
       <c r="BO1" s="11"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1208,48 +1208,48 @@
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="36"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="45"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="48"/>
       <c r="AH2" s="18"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
       <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="11"/>
@@ -1277,22 +1277,22 @@
       <c r="BO2" s="11"/>
     </row>
     <row r="3" spans="2:67" s="4" customFormat="1" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="19" t="s">
@@ -1359,12 +1359,12 @@
       <c r="BO3" s="22"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="23">
         <v>1</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1565,16 +1565,16 @@
       <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="44"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="28"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -1637,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -1645,16 +1645,16 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="46"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -1725,16 +1725,16 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="46"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
@@ -1805,16 +1805,16 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="46"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -1885,16 +1885,16 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="46"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -1965,16 +1965,16 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="46"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -2045,16 +2045,16 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="46"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -2125,16 +2125,16 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="46"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -2205,16 +2205,16 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="46"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -2285,16 +2285,16 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="46"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="30"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
@@ -2365,16 +2365,16 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="46"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="30"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -2445,16 +2445,16 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="46"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="30"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>

--- a/간트차트_7조_정한다슬_김경철.xlsx
+++ b/간트차트_7조_정한다슬_김경철.xlsx
@@ -1107,7 +1107,7 @@
   <dimension ref="B1:BO16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>

--- a/간트차트_7조_정한다슬_김경철.xlsx
+++ b/간트차트_7조_정한다슬_김경철.xlsx
@@ -1107,7 +1107,7 @@
   <dimension ref="B1:BO16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1563,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="28"/>

--- a/간트차트_7조_정한다슬_김경철.xlsx
+++ b/간트차트_7조_정한다슬_김경철.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>오른쪽에서 강조 표시할 기간을 선택합니다.  그 다음, 차트를 설명하는 범례가 나옵니다.</t>
   </si>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>프로토콜 정리(채팅등의 명령어 정립)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2108.04.19 (3~4) : 로그인 기능 , 이벤트 완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainpos,reservation, studyroom 이벤트 완성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1104,10 +1112,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO16"/>
+  <dimension ref="B1:BO19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F19" activeCellId="1" sqref="B20 F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1204,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="14"/>
@@ -1717,13 +1725,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
@@ -1797,13 +1805,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
@@ -1877,13 +1885,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
@@ -2505,6 +2513,16 @@
       <c r="BM16" s="11"/>
       <c r="BN16" s="11"/>
       <c r="BO16" s="11"/>
+    </row>
+    <row r="18" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
